--- a/docs/measurements.xlsx
+++ b/docs/measurements.xlsx
@@ -299,7 +299,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -311,10 +311,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.147609046060665"/>
-          <c:y val="0.0414471373375483"/>
-          <c:w val="0.763249157426855"/>
-          <c:h val="0.781945907973305"/>
+          <c:x val="0.147580959812719"/>
+          <c:y val="0.0414500491780245"/>
+          <c:w val="0.763216933281311"/>
+          <c:h val="0.781860334410566"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -470,19 +470,41 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>'Byzantine nonprimary coordinator'!$B$7:$F$7</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>categories</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>6</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Normal operation'!$B$9:$F$9</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -627,19 +649,41 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>'Byzantine nonprimary coordinator'!$B$7:$F$7</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>categories</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>6</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Byzantine nonprimary coordinator'!$B$9:$F$9</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -671,11 +715,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="47397705"/>
-        <c:axId val="60002239"/>
+        <c:axId val="80580813"/>
+        <c:axId val="52959761"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47397705"/>
+        <c:axId val="80580813"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +775,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60002239"/>
+        <c:crossAx val="52959761"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -739,7 +783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60002239"/>
+        <c:axId val="52959761"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -796,7 +840,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47397705"/>
+        <c:crossAx val="80580813"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -815,10 +859,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.490035169988277"/>
-          <c:y val="0.631375579598145"/>
-          <c:w val="0.379054318093005"/>
-          <c:h val="0.0767879724603063"/>
+          <c:x val="0.464132532704268"/>
+          <c:y val="0.601251158480074"/>
+          <c:w val="0.404943169633283"/>
+          <c:h val="0.106889094840902"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -862,16 +906,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>615960</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>636480</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>762840</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -879,8 +923,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13938120" y="1320120"/>
-        <a:ext cx="7369920" cy="5124240"/>
+        <a:off x="14178600" y="1310400"/>
+        <a:ext cx="8099280" cy="4532040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -900,11 +944,11 @@
   </sheetPr>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S47" activeCellId="0" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.75"/>
@@ -2806,7 +2850,7 @@
       <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.75"/>
   </cols>
